--- a/_resource/excel/table/D-道具-道具类型-(框架定义,后端填写).xlsx
+++ b/_resource/excel/table/D-道具-道具类型-(框架定义,后端填写).xlsx
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,6 +303,10 @@
   <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveBagList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -864,7 +864,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1482,13 +1482,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>25</v>
@@ -1516,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
